--- a/data/Average_of_spend_per_visit.xlsx
+++ b/data/Average_of_spend_per_visit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soichirotanabe/Desktop/IRONHACK/Week_5/Mid_bootcamp_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A03025-827E-F347-A665-088E645A8DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89153844-4D66-EF4C-A1BE-D9D0B23AD2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1200" windowWidth="27640" windowHeight="16440" xr2:uid="{22B7FB97-13A5-FE4B-B19F-BE465F39364D}"/>
+    <workbookView xWindow="12640" yWindow="1560" windowWidth="27640" windowHeight="16440" xr2:uid="{22B7FB97-13A5-FE4B-B19F-BE465F39364D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="68">
   <si>
     <t>2022R</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>- of which EU</t>
+  </si>
+  <si>
+    <t>- of which EU15</t>
+  </si>
+  <si>
+    <t>- of which EU Oth</t>
   </si>
   <si>
     <t>Egypt</t>
@@ -240,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,6 +280,13 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -316,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -371,6 +384,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9546A4F8-750D-4340-89B1-5E0826E60DE8}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,7 +711,7 @@
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -705,7 +719,7 @@
       <c r="G1" s="15"/>
       <c r="H1" s="1"/>
       <c r="I1" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -2029,9 +2043,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
-        <f>A41</f>
-        <v>0</v>
+      <c r="A40" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="21">
@@ -2067,9 +2080,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <f>B71</f>
-        <v>0</v>
+      <c r="A41" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="8">
@@ -2106,7 +2118,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="8">
@@ -2143,7 +2155,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="8">
@@ -2180,7 +2192,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="8">
@@ -2217,7 +2229,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="8">
@@ -2254,7 +2266,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="8">
@@ -2291,7 +2303,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="8">
@@ -2328,7 +2340,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="8">
@@ -2365,7 +2377,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="8">
@@ -2402,7 +2414,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="8">
@@ -2439,7 +2451,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="8">
@@ -2476,7 +2488,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="8">
@@ -2513,7 +2525,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="8">
@@ -2550,7 +2562,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="8">
@@ -2587,7 +2599,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="8">
@@ -2624,7 +2636,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="8">
@@ -2661,7 +2673,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="8">
@@ -2698,7 +2710,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="8">
@@ -2735,7 +2747,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="8">
@@ -2772,7 +2784,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="8">
@@ -2809,7 +2821,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="8">
@@ -2846,7 +2858,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="8">
@@ -2883,7 +2895,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="8">
@@ -2920,7 +2932,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="8">
@@ -2957,7 +2969,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="8">
@@ -2994,7 +3006,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="8">
@@ -3031,7 +3043,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="8">
@@ -3068,7 +3080,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="8">
@@ -3105,14 +3117,14 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>2</v>
@@ -3125,10 +3137,10 @@
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K69" s="9" t="s">
         <v>2</v>
@@ -3142,7 +3154,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="8">
